--- a/Расписание заданий limenitiz.xlsx
+++ b/Расписание заданий limenitiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\SUAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA750D15-E77A-4428-B16F-A1F119CE4031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABB252E-CB0C-426E-9CF9-712B0BA3CF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{010A4B3F-F8C0-44ED-AC48-89E8262330B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>Предмет:</t>
   </si>
@@ -100,13 +100,16 @@
   </si>
   <si>
     <t>НЕДЕЛЬ</t>
+  </si>
+  <si>
+    <t>ДЗ2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,23 +125,17 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,16 +246,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,20 +257,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -310,36 +303,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -730,7 +693,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,41 +711,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17">
         <f ca="1">TODAY()</f>
-        <v>44462</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12" t="s">
+        <v>44463</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17">
         <v>44561</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -790,116 +753,156 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="18">
         <f ca="1">J1-D1</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="19"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="20">
+        <f ca="1">J3/7</f>
+        <v>14</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="20">
-        <f ca="1">J3/7</f>
-        <v>14.142857142857142</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44457</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44457</v>
+      </c>
+      <c r="D8" s="2">
+        <f ca="1">B8-$D$1</f>
+        <v>-6</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44453</v>
+      </c>
+      <c r="H8" s="5">
+        <v>44457</v>
+      </c>
+      <c r="I8" s="6">
+        <f ca="1">G8-$D$1</f>
+        <v>-10</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44471</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44471</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D15" ca="1" si="0">C9-$D$1</f>
+        <v>8</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44467</v>
+      </c>
+      <c r="H9" s="5">
+        <v>44471</v>
+      </c>
+      <c r="I9" s="6">
+        <f ca="1">G9-$D$1</f>
+        <v>4</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
@@ -907,31 +910,31 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>44457</v>
+        <v>44485</v>
       </c>
       <c r="C10" s="5">
-        <v>44457</v>
+        <v>44485</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">B10-$D$1</f>
-        <v>-5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" s="5">
-        <v>44453</v>
+        <v>44481</v>
       </c>
       <c r="H10" s="5">
-        <v>44457</v>
+        <v>44485</v>
       </c>
       <c r="I10" s="6">
-        <f ca="1">G10-$D$1</f>
-        <v>-9</v>
+        <f t="shared" ref="I10:I15" ca="1" si="1">G10-$D$1</f>
+        <v>18</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
@@ -939,31 +942,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>44471</v>
+        <v>44499</v>
       </c>
       <c r="C11" s="5">
-        <v>44471</v>
+        <v>44499</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D17" ca="1" si="0">C11-$D$1</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="5">
-        <v>44467</v>
+        <v>44495</v>
       </c>
       <c r="H11" s="5">
-        <v>44471</v>
+        <v>44499</v>
       </c>
       <c r="I11" s="6">
-        <f ca="1">G11-$D$1</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -971,31 +974,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>44485</v>
+        <v>44513</v>
       </c>
       <c r="C12" s="5">
-        <v>44485</v>
+        <v>44513</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5">
-        <v>44481</v>
+        <v>44509</v>
       </c>
       <c r="H12" s="5">
-        <v>44485</v>
+        <v>44513</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" ref="I12:I17" ca="1" si="1">G12-$D$1</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
@@ -1003,31 +1006,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>44499</v>
+        <v>44527</v>
       </c>
       <c r="C13" s="5">
-        <v>44499</v>
+        <v>44527</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5">
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="H13" s="5">
-        <v>44499</v>
+        <v>44527</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
@@ -1035,31 +1038,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>44513</v>
+        <v>44541</v>
       </c>
       <c r="C14" s="5">
-        <v>44513</v>
+        <v>44541</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" s="5">
-        <v>44509</v>
+        <v>44537</v>
       </c>
       <c r="H14" s="5">
-        <v>44513</v>
+        <v>44541</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1067,361 +1070,309 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>44527</v>
+        <v>44555</v>
       </c>
       <c r="C15" s="5">
-        <v>44527</v>
+        <v>44555</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5">
-        <v>44523</v>
+        <v>44551</v>
       </c>
       <c r="H15" s="5">
-        <v>44527</v>
+        <v>44555</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5">
-        <v>44541</v>
-      </c>
-      <c r="C16" s="5">
-        <v>44541</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5">
-        <v>44537</v>
-      </c>
-      <c r="H16" s="5">
-        <v>44541</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
-        <v>44555</v>
-      </c>
-      <c r="C17" s="5">
-        <v>44555</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="5">
-        <v>44551</v>
-      </c>
-      <c r="H17" s="5">
-        <v>44555</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44462</v>
+      </c>
+      <c r="C19" s="5">
+        <v>44464</v>
+      </c>
+      <c r="D19" s="2">
+        <f ca="1">C19-D1</f>
+        <v>1</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="5">
+        <v>44490</v>
+      </c>
+      <c r="H19" s="5">
+        <v>44490</v>
+      </c>
+      <c r="I19" s="2">
+        <f ca="1">G19-D1</f>
+        <v>27</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44554</v>
+      </c>
+      <c r="C20" s="8">
+        <v>44554</v>
+      </c>
+      <c r="D20" s="7">
+        <f ca="1">C20-D1</f>
+        <v>91</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="G20" s="5">
+        <v>44504</v>
+      </c>
+      <c r="H20" s="5">
+        <v>44504</v>
+      </c>
+      <c r="I20" s="2">
+        <f ca="1">G20-D1</f>
+        <v>41</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5">
-        <v>44462</v>
-      </c>
-      <c r="C21" s="5">
-        <v>44464</v>
-      </c>
-      <c r="D21" s="2">
-        <f ca="1">C21-D1</f>
-        <v>2</v>
-      </c>
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
+      <c r="F21" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>44490</v>
+        <v>44518</v>
       </c>
       <c r="H21" s="5">
-        <v>44490</v>
-      </c>
-      <c r="I21" s="2">
+        <v>44518</v>
+      </c>
+      <c r="I21" s="6">
         <f ca="1">G21-D1</f>
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8">
-        <v>44554</v>
-      </c>
-      <c r="C22" s="8">
-        <v>44554</v>
-      </c>
-      <c r="D22" s="7">
-        <f ca="1">C22-D1</f>
-        <v>92</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="5">
-        <v>44504</v>
-      </c>
-      <c r="H22" s="5">
-        <v>44504</v>
-      </c>
-      <c r="I22" s="2">
-        <f ca="1">G22-D1</f>
-        <v>42</v>
-      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5">
-        <v>44518</v>
-      </c>
-      <c r="H23" s="5">
-        <v>44518</v>
-      </c>
-      <c r="I23" s="6">
-        <f ca="1">G23-D1</f>
-        <v>56</v>
-      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="F24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="F25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44476</v>
+      </c>
+      <c r="C26" s="5">
+        <v>44476</v>
+      </c>
+      <c r="D26" s="2">
+        <f ca="1">C26-D1</f>
+        <v>13</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="G26" s="5">
+        <v>44482</v>
+      </c>
+      <c r="H26" s="5">
+        <v>44482</v>
+      </c>
+      <c r="I26" s="6">
+        <f ca="1">H26-D1</f>
+        <v>19</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="5">
-        <v>44476</v>
-      </c>
-      <c r="C28" s="5">
-        <v>44476</v>
-      </c>
-      <c r="D28" s="2">
-        <f ca="1">C28-D1</f>
-        <v>14</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="5">
-        <v>44482</v>
-      </c>
-      <c r="H28" s="5">
-        <v>44482</v>
-      </c>
-      <c r="I28" s="6">
-        <f ca="1">H28-D1</f>
-        <v>20</v>
-      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1452,36 +1403,32 @@
       <c r="L33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G3:I6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B19:D19"/>
+  <mergeCells count="11">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:L2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D10:D17 I10:I17 I21:I23 D21:D22 D28 I28">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
-      <formula>0</formula>
-      <formula>7</formula>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D8:D15 I8:I15 I19:I21 D19:D20 D26 I26">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>15</formula>
+      <formula>21</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>8</formula>
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
-      <formula>15</formula>
-      <formula>21</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Расписание заданий limenitiz.xlsx
+++ b/Расписание заданий limenitiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABB252E-CB0C-426E-9CF9-712B0BA3CF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C7E4D-D307-492C-998C-B0B13F2FE205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{010A4B3F-F8C0-44ED-AC48-89E8262330B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>Предмет:</t>
   </si>
@@ -102,14 +102,14 @@
     <t>НЕДЕЛЬ</t>
   </si>
   <si>
-    <t>ДЗ2</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +137,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -229,10 +243,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -248,6 +263,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -263,16 +288,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% — акцент3" xfId="1" builtinId="39"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -693,7 +712,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,41 +730,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23">
         <f ca="1">TODAY()</f>
         <v>44463</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23">
         <v>44561</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -753,35 +772,35 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="18">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="13">
         <f ca="1">J1-D1</f>
         <v>98</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="19"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="20">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="15">
         <f ca="1">J3/7</f>
         <v>14</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
@@ -790,29 +809,29 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="L5" s="21"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -845,32 +864,30 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="18">
         <v>44457</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="18">
         <v>44457</v>
       </c>
-      <c r="D8" s="2">
-        <f ca="1">B8-$D$1</f>
-        <v>-6</v>
+      <c r="D8" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="18">
         <v>44453</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="18">
         <v>44457</v>
       </c>
-      <c r="I8" s="6">
-        <f ca="1">G8-$D$1</f>
-        <v>-10</v>
+      <c r="I8" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
@@ -1118,20 +1135,20 @@
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1167,18 +1184,17 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="18">
         <v>44462</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="18">
         <v>44464</v>
       </c>
-      <c r="D19" s="2">
-        <f ca="1">C19-D1</f>
-        <v>1</v>
+      <c r="D19" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
@@ -1231,9 +1247,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
@@ -1287,20 +1301,20 @@
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1404,17 +1418,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D8:D15 I8:I15 I19:I21 D19:D20 D26 I26">

--- a/Расписание заданий limenitiz.xlsx
+++ b/Расписание заданий limenitiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C7E4D-D307-492C-998C-B0B13F2FE205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2620DDD6-7866-4C01-AE23-0A0C4CFC9382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{010A4B3F-F8C0-44ED-AC48-89E8262330B7}"/>
   </bookViews>
@@ -273,6 +273,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,13 +289,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% — акцент3" xfId="1" builtinId="39"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9BC2D3-AFC8-4DBA-AC1C-3F0974080892}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,41 +730,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="20">
         <f ca="1">TODAY()</f>
-        <v>44463</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="22" t="s">
+        <v>44469</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="20">
         <v>44561</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -772,14 +772,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="13">
         <f ca="1">J1-D1</f>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>6</v>
@@ -790,12 +790,12 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="15">
         <f ca="1">J3/7</f>
-        <v>14</v>
+        <v>13.142857142857142</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>24</v>
@@ -815,20 +815,20 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="15"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -886,7 +886,7 @@
       <c r="H8" s="18">
         <v>44457</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="3"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D15" ca="1" si="0">C9-$D$1</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
@@ -919,7 +919,7 @@
       </c>
       <c r="I9" s="6">
         <f ca="1">G9-$D$1</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
@@ -951,7 +951,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ref="I10:I15" ca="1" si="1">G10-$D$1</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
@@ -983,7 +983,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1135,20 +1135,20 @@
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I19" s="2">
         <f ca="1">G19-D1</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D20" s="7">
         <f ca="1">C20-D1</f>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I20" s="2">
         <f ca="1">G20-D1</f>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I21" s="6">
         <f ca="1">G21-D1</f>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1301,20 +1301,20 @@
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1357,11 +1357,11 @@
         <v>44476</v>
       </c>
       <c r="C26" s="5">
-        <v>44476</v>
+        <v>44483</v>
       </c>
       <c r="D26" s="2">
         <f ca="1">C26-D1</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="I26" s="6">
         <f ca="1">H26-D1</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1418,17 +1418,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D8:D15 I8:I15 I19:I21 D19:D20 D26 I26">

--- a/Расписание заданий limenitiz.xlsx
+++ b/Расписание заданий limenitiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2620DDD6-7866-4C01-AE23-0A0C4CFC9382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF33D3-1A4B-4F6B-98BB-1EF598BAAB0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{010A4B3F-F8C0-44ED-AC48-89E8262330B7}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +157,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -274,12 +280,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,6 +289,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% — акцент3" xfId="1" builtinId="39"/>
@@ -711,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9BC2D3-AFC8-4DBA-AC1C-3F0974080892}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,41 +739,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24">
         <f ca="1">TODAY()</f>
-        <v>44469</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21" t="s">
+        <v>44475</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="20">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24">
         <v>44561</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -772,14 +781,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="13">
         <f ca="1">J1-D1</f>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>6</v>
@@ -790,12 +799,12 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="15">
         <f ca="1">J3/7</f>
-        <v>13.142857142857142</v>
+        <v>12.285714285714286</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>24</v>
@@ -815,20 +824,20 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="15"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -905,21 +914,21 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D15" ca="1" si="0">C9-$D$1</f>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="26">
         <v>44467</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="26">
         <v>44471</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="27">
         <f ca="1">G9-$D$1</f>
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
@@ -937,7 +946,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
@@ -951,7 +960,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ref="I10:I15" ca="1" si="1">G10-$D$1</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
@@ -969,7 +978,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
@@ -983,7 +992,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -1001,7 +1010,7 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
@@ -1015,7 +1024,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
@@ -1033,7 +1042,7 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
@@ -1047,7 +1056,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
@@ -1065,7 +1074,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
@@ -1079,7 +1088,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1097,7 +1106,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
@@ -1111,7 +1120,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1135,20 +1144,20 @@
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1208,7 +1217,7 @@
       </c>
       <c r="I19" s="2">
         <f ca="1">G19-D1</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1226,7 +1235,7 @@
       </c>
       <c r="D20" s="7">
         <f ca="1">C20-D1</f>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
@@ -1240,7 +1249,7 @@
       </c>
       <c r="I20" s="2">
         <f ca="1">G20-D1</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1263,7 +1272,7 @@
       </c>
       <c r="I21" s="6">
         <f ca="1">G21-D1</f>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1301,20 +1310,20 @@
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1361,7 +1370,7 @@
       </c>
       <c r="D26" s="2">
         <f ca="1">C26-D1</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
@@ -1375,7 +1384,7 @@
       </c>
       <c r="I26" s="6">
         <f ca="1">H26-D1</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1418,17 +1427,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D8:D15 I8:I15 I19:I21 D19:D20 D26 I26">

--- a/Расписание заданий limenitiz.xlsx
+++ b/Расписание заданий limenitiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF33D3-1A4B-4F6B-98BB-1EF598BAAB0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7D8B1A-EE19-493A-928C-CA0C13BB5D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{010A4B3F-F8C0-44ED-AC48-89E8262330B7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{010A4B3F-F8C0-44ED-AC48-89E8262330B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>Предмет:</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Пара для сдачи:</t>
-  </si>
-  <si>
-    <t>Ддз1</t>
   </si>
   <si>
     <t>ЭВМ</t>
@@ -166,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -190,19 +187,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -213,15 +197,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -253,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -261,10 +236,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -280,24 +251,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% — акцент3" xfId="1" builtinId="39"/>
@@ -721,7 +692,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K15" sqref="K15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,41 +710,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="19">
         <f ca="1">TODAY()</f>
-        <v>44475</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="23" t="s">
+        <v>44489</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="19">
         <v>44561</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -781,66 +752,66 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="13">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="9">
         <f ca="1">J1-D1</f>
-        <v>86</v>
-      </c>
-      <c r="K3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="15">
+      <c r="F4" s="8"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="11">
         <f ca="1">J3/7</f>
-        <v>12.285714285714286</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="14"/>
+        <v>10.285714285714286</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="L5" s="16"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -873,62 +844,62 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <v>44457</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="14">
         <v>44457</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>25</v>
+      <c r="D8" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="14">
         <v>44453</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="14">
         <v>44457</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>25</v>
+      <c r="I8" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="14">
         <v>44471</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="14">
         <v>44471</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="13">
         <f t="shared" ref="D9:D15" ca="1" si="0">C9-$D$1</f>
-        <v>-4</v>
+        <v>-18</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="17">
         <v>44467</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="17">
         <v>44471</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="18">
         <f ca="1">G9-$D$1</f>
-        <v>-8</v>
+        <v>-22</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
@@ -946,7 +917,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
@@ -960,7 +931,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ref="I10:I15" ca="1" si="1">G10-$D$1</f>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
@@ -978,7 +949,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
@@ -992,7 +963,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -1010,7 +981,7 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
@@ -1024,7 +995,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
@@ -1042,7 +1013,7 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
@@ -1056,7 +1027,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
@@ -1074,7 +1045,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
@@ -1088,7 +1059,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1106,7 +1077,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
@@ -1120,7 +1091,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1144,20 +1115,20 @@
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
+      <c r="G17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1193,17 +1164,17 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>44462</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <v>44464</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>25</v>
+      <c r="D19" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
@@ -1217,26 +1188,17 @@
       </c>
       <c r="I19" s="2">
         <f ca="1">G19-D1</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="8">
-        <v>44554</v>
-      </c>
-      <c r="C20" s="8">
-        <v>44554</v>
-      </c>
-      <c r="D20" s="7">
-        <f ca="1">C20-D1</f>
-        <v>79</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
         <v>8</v>
@@ -1249,19 +1211,19 @@
       </c>
       <c r="I20" s="2">
         <f ca="1">G20-D1</f>
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="5">
@@ -1272,7 +1234,7 @@
       </c>
       <c r="I21" s="6">
         <f ca="1">G21-D1</f>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1310,20 +1272,20 @@
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+      <c r="G24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1370,21 +1332,21 @@
       </c>
       <c r="D26" s="2">
         <f ca="1">C26-D1</f>
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="14">
         <v>44482</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="14">
         <v>44482</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="15">
         <f ca="1">H26-D1</f>
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1427,20 +1389,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D15 I8:I15 I19:I21 D19:D20 D26 I26">
+  <conditionalFormatting sqref="D8:D15 I8:I15 I19:I21 D19 D26 I26">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>15</formula>
       <formula>21</formula>
